--- a/方块 block/比较器信号.xlsx
+++ b/方块 block/比较器信号.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="10600"/>
+    <workbookView windowWidth="25600" windowHeight="10600" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="容器" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="222">
   <si>
     <t>物品栏数</t>
   </si>
@@ -393,16 +393,16 @@
     <t>脚步</t>
   </si>
   <si>
-    <t>minecraft:step</t>
-  </si>
-  <si>
-    <t>实体（不包括监守者）行走[^1][^2]</t>
+    <t>step</t>
+  </si>
+  <si>
+    <t>实体（不包括监守者）行走[注 1][注 2]</t>
   </si>
   <si>
     <t>游泳</t>
   </si>
   <si>
-    <t>minecraft:swim</t>
+    <t>swim</t>
   </si>
   <si>
     <t>实体游泳</t>
@@ -411,25 +411,16 @@
     <t>拍打</t>
   </si>
   <si>
-    <t>minecraft:flap</t>
+    <t>flap</t>
   </si>
   <si>
     <t>飞行的实体（例如蝙蝠）拍打翅膀</t>
   </si>
   <si>
-    <t>共振</t>
-  </si>
-  <si>
-    <t>minecraft:resonate_1</t>
-  </si>
-  <si>
-    <t>紫水晶块1级共振</t>
-  </si>
-  <si>
     <t>弹射物击中</t>
   </si>
   <si>
-    <t>minecraft:projectile_land</t>
+    <t>projectile_land</t>
   </si>
   <si>
     <t>弹射物击中某物</t>
@@ -438,73 +429,61 @@
     <t>落地</t>
   </si>
   <si>
-    <t>minecraft:hit_ground</t>
-  </si>
-  <si>
-    <t>实体从高处落地[^1][^3]</t>
+    <t>hit_ground</t>
+  </si>
+  <si>
+    <t>实体从高处落地[注 1][注 3]</t>
   </si>
   <si>
     <t>溅起水花</t>
   </si>
   <si>
-    <t>minecraft:splash</t>
-  </si>
-  <si>
-    <t>实体浮出水面[^4]；船受到气泡柱的冲击、划桨声</t>
-  </si>
-  <si>
-    <t>minecraft:resonate_2</t>
-  </si>
-  <si>
-    <t>紫水晶块2级共振</t>
+    <t>splash</t>
+  </si>
+  <si>
+    <t>实体浮出水面[注 4]；船受到气泡柱的冲击</t>
   </si>
   <si>
     <t>物品互动结束</t>
   </si>
   <si>
-    <t>minecraft:item_interact_finish</t>
-  </si>
-  <si>
-    <t>玩家收回钓鱼竿、使用骨粉、放下盾牌、关闭望远镜；玩家[仅BE]生物[仅JE]结束使用各种物品</t>
+    <t>item_interact_finish</t>
+  </si>
+  <si>
+    <t>玩家收回钓鱼竿、使用骨粉；玩家[仅BE]生物[仅JE]结束使用各种物品，例如放下盾牌、关闭望远镜</t>
   </si>
   <si>
     <t>弹射物发射</t>
   </si>
   <si>
-    <t>minecraft:projectile_shoot</t>
-  </si>
-  <si>
-    <t>射出弹射物[^1]</t>
+    <t>projectile_shoot</t>
+  </si>
+  <si>
+    <t>射出弹射物[注 1]</t>
   </si>
   <si>
     <t>奏响乐器</t>
   </si>
   <si>
-    <t>minecraft:instrument_play</t>
-  </si>
-  <si>
-    <t>吹奏山羊角</t>
-  </si>
-  <si>
-    <t>minecraft:resonate_3</t>
-  </si>
-  <si>
-    <t>紫水晶块3级共振</t>
+    <t>instrument_play</t>
+  </si>
+  <si>
+    <t>吹奏山羊角[仅JE]</t>
   </si>
   <si>
     <t>实体行动</t>
   </si>
   <si>
-    <t>minecraft:entity_action</t>
-  </si>
-  <si>
-    <t>劫掠兽咆哮；狼甩掉身上的水；嗅探兽刨挖种子；海龟挖开沙子；骆驼坐下、起身与冲刺；嘎枝切换活动状态；玩家攻击与嘎枝之心绑定的嘎枝[新增：JE 1.21.5]</t>
+    <t>entity_action</t>
+  </si>
+  <si>
+    <t>劫掠兽咆哮；狼甩掉身上的水；嗅探兽刨挖种子；海龟挖开沙子；骆驼坐下、起身与冲刺；嘎枝切换活动状态；玩家攻击与嘎枝之心绑定的嘎枝；将两个实体拴在一起</t>
   </si>
   <si>
     <t>鞘翅滑翔</t>
   </si>
   <si>
-    <t>minecraft:elytra_glide</t>
+    <t>elytra_glide</t>
   </si>
   <si>
     <t>用鞘翅滑翔</t>
@@ -513,22 +492,16 @@
     <t>卸下装备</t>
   </si>
   <si>
-    <t>minecraft:unequip</t>
-  </si>
-  <si>
-    <t>卸下玩家、盔甲架穿戴的物品；村民交易展示、更换为非装备性[仅JE]物品、收回物品；女巫或流浪商人饮用药水；流浪商人饮用奶</t>
-  </si>
-  <si>
-    <t>minecraft:resonate_4</t>
-  </si>
-  <si>
-    <t>紫水晶块4级共振</t>
+    <t>unequip</t>
+  </si>
+  <si>
+    <t>卸下生物穿戴的物品；村民交易展示、更换为非装备性[仅JE]物品、收回物品；女巫或流浪商人饮用药水；流浪商人饮用奶</t>
   </si>
   <si>
     <t>离开坐骑</t>
   </si>
   <si>
-    <t>minecraft:entity_dismount</t>
+    <t>entity_dismount</t>
   </si>
   <si>
     <t>乘客离开坐骑</t>
@@ -537,22 +510,16 @@
     <t>装备</t>
   </si>
   <si>
-    <t>minecraft:equip</t>
+    <t>equip</t>
   </si>
   <si>
     <t>玩家穿戴物品；为盔甲架装备物品；村民交易展示、更换为装备物品[仅JE]</t>
   </si>
   <si>
-    <t>minecraft:resonate_5</t>
-  </si>
-  <si>
-    <t>紫水晶块5级共振</t>
-  </si>
-  <si>
     <t>骑上坐骑</t>
   </si>
   <si>
-    <t>minecraft:entity_mount</t>
+    <t>entity_mount</t>
   </si>
   <si>
     <t>乘客骑上坐骑</t>
@@ -561,7 +528,7 @@
     <t>实体互动</t>
   </si>
   <si>
-    <t>minecraft:entity_interact</t>
+    <t>entity_interact</t>
   </si>
   <si>
     <t>对受虚弱效果影响的僵尸村民使用金苹果；通过喂食来治愈已驯服的狼；通过使用铁锭来治愈铁傀儡；给予熊猫食物；成功喂食其他绝大多数生物[仅JE]；给生物命名；使用水桶收集鱼、美西螈或蝌蚪；与各种实体互动</t>
@@ -570,61 +537,43 @@
     <t>剪切</t>
   </si>
   <si>
-    <t>minecraft:shear</t>
-  </si>
-  <si>
-    <t>用剪刀剪断绊线、雕刻南瓜、收获蜜脾[^5]、移除雪傀儡的头[^5]、给绵羊剪毛[^5]、为哞菇和沼骸除菇[^5]以及修剪植物[仅BE]</t>
-  </si>
-  <si>
-    <t>minecraft:resonate_6</t>
-  </si>
-  <si>
-    <t>紫水晶块6级共振</t>
+    <t>shear</t>
+  </si>
+  <si>
+    <t>用剪刀剪断绊线、雕刻南瓜、卸下鞍和地毯等装备、收获蜜脾[注 5]、移除雪傀儡的头[注 5]、给绵羊剪毛[注 5]、为哞菇和沼骸除菇[注 5]、修剪植物[仅BE]、剪断拴绳连接[注 5][仅JE]</t>
   </si>
   <si>
     <t>实体受伤</t>
   </si>
   <si>
-    <t>minecraft:entity_damage</t>
-  </si>
-  <si>
-    <t>实体（不包括监守者）受伤；实体（不包括盔甲架、监守者）死亡；所有船、矿车与物品实体[^3]的受伤与死亡；不死图腾生效</t>
-  </si>
-  <si>
-    <t>minecraft:resonate_7</t>
-  </si>
-  <si>
-    <t>紫水晶块7级共振</t>
+    <t>entity_damage</t>
+  </si>
+  <si>
+    <t>实体（不包括监守者）受伤；所有船、矿车与物品实体[注 3]的受伤与死亡</t>
   </si>
   <si>
     <t>饮用</t>
   </si>
   <si>
-    <t>minecraft:drink</t>
-  </si>
-  <si>
-    <t>玩家或流浪商人喝完玻璃瓶中的液体；玩家饮用奶和蜂蜜，使用不祥之瓶[需要检查基岩版源代码]</t>
+    <t>drink</t>
+  </si>
+  <si>
+    <t>玩家或流浪商人喝完玻璃瓶中的液体；玩家饮用奶和蜂蜜，使用不祥之瓶</t>
   </si>
   <si>
     <t>进食</t>
   </si>
   <si>
-    <t>minecraft:eat</t>
-  </si>
-  <si>
-    <t>玩家进食[^6]；动物吃草；熊猫持续进食[仅BE]；喂食马[^7]和骆驼；成功喂食其他绝大多数生物[仅BE]</t>
-  </si>
-  <si>
-    <t>minecraft:resonate_8</t>
-  </si>
-  <si>
-    <t>紫水晶块8级共振</t>
+    <t>eat</t>
+  </si>
+  <si>
+    <t>玩家进食[注 6]；动物吃草；熊猫持续进食[仅BE]；喂食马[注 7]和骆驼；成功喂食其他绝大多数生物[仅BE]</t>
   </si>
   <si>
     <t>关闭容器</t>
   </si>
   <si>
-    <t>minecraft:container_close</t>
+    <t>container_close</t>
   </si>
   <si>
     <t>箱子、陷阱箱、末影箱、木桶或潜影盒关闭；潜影贝关闭其外壳、关闭运输矿车或运输船</t>
@@ -633,7 +582,7 @@
     <t>关闭方块</t>
   </si>
   <si>
-    <t>minecraft:block_close</t>
+    <t>block_close</t>
   </si>
   <si>
     <t>关闭门、活板门或栅栏门</t>
@@ -642,31 +591,25 @@
     <t>方块取消激活</t>
   </si>
   <si>
-    <t>minecraft:block_deactivate</t>
-  </si>
-  <si>
-    <t>关闭拉杆；按钮、绊线以及压力板回复原本的状态</t>
+    <t>block_deactivate</t>
+  </si>
+  <si>
+    <t>关闭拉杆；活塞收回；按钮、绊线以及压力板回复原本的状态</t>
   </si>
   <si>
     <t>分离方块</t>
   </si>
   <si>
-    <t>minecraft:block_detach</t>
-  </si>
-  <si>
-    <t>拆除有效绊线线路的绊线</t>
-  </si>
-  <si>
-    <t>minecraft:resonate_9</t>
-  </si>
-  <si>
-    <t>紫水晶块9级共振</t>
+    <t>block_detach</t>
+  </si>
+  <si>
+    <t>拆除有效绊线线路的绊线；剪断栅栏上的拴绳连接[注 5][仅BE]；将拴绳从栅栏上取下[仅BE]</t>
   </si>
   <si>
     <t>打开容器</t>
   </si>
   <si>
-    <t>minecraft:container_open</t>
+    <t>container_open</t>
   </si>
   <si>
     <t>箱子、陷阱箱、末影箱、木桶、潜影盒、运输矿车或漏斗开启；潜影贝打开外壳</t>
@@ -675,7 +618,7 @@
     <t>打开方块</t>
   </si>
   <si>
-    <t>minecraft:block_open</t>
+    <t>block_open</t>
   </si>
   <si>
     <t>打开门、活板门或栅栏门</t>
@@ -684,7 +627,7 @@
     <t>激活方块</t>
   </si>
   <si>
-    <t>minecraft:block_activate</t>
+    <t>block_activate</t>
   </si>
   <si>
     <t>打开拉杆；按钮、绊线以及压力板被激活；活塞伸出；发射器发射失败</t>
@@ -693,7 +636,7 @@
     <t>连接方块</t>
   </si>
   <si>
-    <t>minecraft:block_attach</t>
+    <t>block_attach</t>
   </si>
   <si>
     <t>布置绊线形成有效绊线线路</t>
@@ -702,100 +645,76 @@
     <t>引爆</t>
   </si>
   <si>
-    <t>minecraft:prime_fuse</t>
-  </si>
-  <si>
-    <t>TNT或苦力怕准备爆炸</t>
+    <t>prime_fuse</t>
+  </si>
+  <si>
+    <t>TNT、苦力怕、TNT矿车[仅BE]准备爆炸；发射风弹[仅BE]</t>
   </si>
   <si>
     <t>奏响音符盒</t>
   </si>
   <si>
-    <t>minecraft:note_block_play</t>
-  </si>
-  <si>
-    <t>minecraft:resonate_10</t>
-  </si>
-  <si>
-    <t>紫水晶块10级共振</t>
+    <t>note_block_play</t>
   </si>
   <si>
     <t>方块变化</t>
   </si>
   <si>
-    <t>minecraft:block_change</t>
-  </si>
-  <si>
-    <t>把书放上讲台或雕纹书架；取下讲台或雕纹书架的书；把植物种入或取出花盆；点燃或熄灭营火与蜡烛[^5]；把蜡烛插在蛋糕上；大型垂滴叶倾斜；敲响钟；海龟蛋或嗅探兽蛋开裂；兔子啃食胡萝卜植株；玩家或狐狸采集甜浆果或发光浆果；与两种物品展示框中的物品互动；为重生锚充能；与堆肥桶交互；使用剪刀修剪植物[仅JE]；将耕地踩踏成泥土；饰纹陶罐晃动；使用染料改变炼药锅中的水的颜色[仅BE]；眼眸花转化；炼药锅因天气或滴水石锥增加一个液体等级[仅JE]</t>
-  </si>
-  <si>
-    <t>minecraft:resonate_11</t>
-  </si>
-  <si>
-    <t>紫水晶块11级共振</t>
+    <t>block_change</t>
+  </si>
+  <si>
+    <t>把书放上讲台或雕纹书架；取下讲台或雕纹书架的书；把植物种入或取出花盆；点燃或熄灭营火与蜡烛[注 5]；把蜡烛插在蛋糕上；大型垂滴叶倾斜；敲响钟；海龟蛋或嗅探兽蛋开裂；兔子啃食胡萝卜植株；玩家或狐狸采集甜浆果或发光浆果；与两种物品展示框中的物品互动；为重生锚充能；与堆肥桶交互；使用剪刀修剪植物[仅JE]；将耕地踩踏成泥土；饰纹陶罐晃动；使用染料改变炼药锅中的水的颜色[仅BE]；眼眸花转化；炼药锅因天气或滴水石锥增加一个液体等级[仅JE]；向末地传送门框架插入末影之眼[仅BE]；蠹虫将方块转化为虫蚀方块[仅BE]；失水恶魂改变湿润阶段</t>
   </si>
   <si>
     <t>破坏方块</t>
   </si>
   <si>
-    <t>minecraft:block_destroy</t>
-  </si>
-  <si>
-    <t>破坏方块[^5]以及末影人捡起方块[^8]</t>
+    <t>block_destroy</t>
+  </si>
+  <si>
+    <t>破坏方块[注 5]以及末影人捡起方块[注 8]</t>
   </si>
   <si>
     <t>装起液体</t>
   </si>
   <si>
-    <t>minecraft:fluid_pickup</t>
-  </si>
-  <si>
-    <t>用玻璃瓶收集水、蜂蜜或龙息[^5]；用桶收集液体或细雪[^5]以及将液体从炼药锅中移除[^5]</t>
-  </si>
-  <si>
-    <t>minecraft:resonate_12</t>
-  </si>
-  <si>
-    <t>紫水晶块12级共振</t>
+    <t>fluid_pickup</t>
+  </si>
+  <si>
+    <t>用玻璃瓶收集水、蜂蜜或龙息[注 5]；用桶收集液体或细雪[注 5]以及将液体从炼药锅中移除[注 5]</t>
   </si>
   <si>
     <t>放置方块</t>
   </si>
   <si>
-    <t>minecraft:block_place</t>
-  </si>
-  <si>
-    <t>放置方块[^9]</t>
+    <t>block_place</t>
+  </si>
+  <si>
+    <t>放置方块[注 9]</t>
   </si>
   <si>
     <t>放置液体</t>
   </si>
   <si>
-    <t>minecraft:fluid_place</t>
-  </si>
-  <si>
-    <t>炼药锅里增加一个液体等级（天气或滴水石锥也可触发）[仅BE]；用桶倒出液体[^5]，不包含放置细雪；使用水瓶将方块转化为泥巴</t>
-  </si>
-  <si>
-    <t>minecraft:resonate_13</t>
-  </si>
-  <si>
-    <t>紫水晶块13级共振</t>
+    <t>fluid_place</t>
+  </si>
+  <si>
+    <t>炼药锅里增加一个液体等级（天气或滴水石锥也可触发）[仅BE]；用桶倒出液体[注 5]；发射器放置细雪；使用水瓶将方块转化为泥巴</t>
   </si>
   <si>
     <t>放置实体</t>
   </si>
   <si>
-    <t>minecraft:entity_place</t>
-  </si>
-  <si>
-    <t>利用物品生成实体（如张贴画、使用刷怪蛋、使用生物桶[^10]、放置船）[^5]、唤魔者召唤出尖牙或恼鬼</t>
+    <t>entity_place</t>
+  </si>
+  <si>
+    <t>利用物品生成实体（如张贴画、使用刷怪蛋、使用生物桶[注 10]、放置船）；发射器发射刷怪蛋、TNT或生物桶；唤魔者召唤出尖牙或恼鬼</t>
   </si>
   <si>
     <t>雷击</t>
   </si>
   <si>
-    <t>minecraft:lightning_strike</t>
+    <t>lightning_strike</t>
   </si>
   <si>
     <t>闪电生成</t>
@@ -804,22 +723,16 @@
     <t>传送</t>
   </si>
   <si>
-    <t>minecraft:teleport</t>
+    <t>teleport</t>
   </si>
   <si>
     <t>末影人的瞬移、紫颂果的传送、潜影贝的传送</t>
   </si>
   <si>
-    <t>minecraft:resonate_14</t>
-  </si>
-  <si>
-    <t>紫水晶块14级共振</t>
-  </si>
-  <si>
     <t>实体死亡</t>
   </si>
   <si>
-    <t>minecraft:entity_die</t>
+    <t>entity_die</t>
   </si>
   <si>
     <t>实体（不包括监守者）死亡；盔甲架被敲掉</t>
@@ -828,16 +741,10 @@
     <t>爆炸</t>
   </si>
   <si>
-    <t>minecraft:explode</t>
+    <t>explode</t>
   </si>
   <si>
     <t>TNT、苦力怕、床、重生锚、风弹或烟花火箭爆炸；风爆魔咒造成的爆炸</t>
-  </si>
-  <si>
-    <t>minecraft:resonate_15</t>
-  </si>
-  <si>
-    <t>紫水晶块15级共振</t>
   </si>
 </sst>
 </file>
@@ -2484,7 +2391,7 @@
   <sheetPr codeName="容器"/>
   <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -5147,9 +5054,9 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D57"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -5228,16 +5135,16 @@
       </c>
     </row>
     <row r="6" ht="15.5" spans="1:4">
-      <c r="A6" s="4">
-        <v>1</v>
-      </c>
-      <c r="B6" s="5" t="s">
+      <c r="A6" s="6">
+        <v>2</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="7" t="s">
         <v>114</v>
       </c>
     </row>
@@ -5270,31 +5177,31 @@
       </c>
     </row>
     <row r="9" ht="15.5" spans="1:4">
-      <c r="A9" s="6">
-        <v>2</v>
-      </c>
-      <c r="B9" s="7" t="s">
+      <c r="A9" s="8">
+        <v>3</v>
+      </c>
+      <c r="B9" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="9" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="10" ht="15.5" spans="1:4">
-      <c r="A10" s="6">
-        <v>2</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="C10" s="7" t="s">
+      <c r="A10" s="8">
+        <v>3</v>
+      </c>
+      <c r="B10" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="C10" s="9" t="s">
         <v>125</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="11" ht="15.5" spans="1:4">
@@ -5302,657 +5209,447 @@
         <v>3</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" ht="15.5" spans="1:4">
-      <c r="A12" s="8">
-        <v>3</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="C12" s="9" t="s">
+      <c r="A12" s="10">
+        <v>4</v>
+      </c>
+      <c r="B12" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="C12" s="11" t="s">
         <v>131</v>
       </c>
+      <c r="D12" s="11" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="13" ht="15.5" spans="1:4">
-      <c r="A13" s="8">
-        <v>3</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="C13" s="9" t="s">
+      <c r="A13" s="10">
+        <v>4</v>
+      </c>
+      <c r="B13" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="C13" s="11" t="s">
         <v>134</v>
       </c>
+      <c r="D13" s="11" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="14" ht="15.5" spans="1:4">
-      <c r="A14" s="8">
-        <v>3</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="D14" s="9" t="s">
+      <c r="A14" s="10">
+        <v>4</v>
+      </c>
+      <c r="B14" s="11" t="s">
         <v>136</v>
       </c>
+      <c r="C14" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="15" ht="15.5" spans="1:4">
-      <c r="A15" s="10">
-        <v>4</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="D15" s="11" t="s">
+      <c r="A15" s="8">
+        <v>5</v>
+      </c>
+      <c r="B15" s="9" t="s">
         <v>139</v>
       </c>
+      <c r="C15" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="16" ht="15.5" spans="1:4">
-      <c r="A16" s="10">
-        <v>4</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="D16" s="11" t="s">
+      <c r="A16" s="8">
+        <v>5</v>
+      </c>
+      <c r="B16" s="9" t="s">
         <v>142</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="17" ht="15.5" spans="1:4">
       <c r="A17" s="10">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="18" ht="15.5" spans="1:4">
       <c r="A18" s="10">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>112</v>
+        <v>148</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19" ht="15.5" spans="1:4">
-      <c r="A19" s="8">
-        <v>5</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>150</v>
+      <c r="A19" s="10">
+        <v>6</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="20" ht="15.5" spans="1:4">
-      <c r="A20" s="8">
-        <v>5</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>153</v>
+      <c r="A20" s="12">
+        <v>7</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="21" ht="15.5" spans="1:4">
-      <c r="A21" s="8">
-        <v>5</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>155</v>
+      <c r="A21" s="14">
+        <v>8</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="22" ht="15.5" spans="1:4">
-      <c r="A22" s="10">
-        <v>6</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>158</v>
+      <c r="A22" s="14">
+        <v>8</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="23" ht="15.5" spans="1:4">
-      <c r="A23" s="10">
-        <v>6</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>161</v>
+      <c r="A23" s="12">
+        <v>9</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="24" ht="15.5" spans="1:4">
-      <c r="A24" s="10">
-        <v>6</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>164</v>
+      <c r="A24" s="12">
+        <v>9</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="25" ht="15.5" spans="1:4">
-      <c r="A25" s="10">
-        <v>6</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>166</v>
+      <c r="A25" s="12">
+        <v>9</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="26" ht="15.5" spans="1:4">
       <c r="A26" s="12">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="27" ht="15.5" spans="1:4">
-      <c r="A27" s="12">
-        <v>7</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>171</v>
+      <c r="A27" s="14">
+        <v>10</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="28" ht="15.5" spans="1:4">
       <c r="A28" s="14">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
     </row>
     <row r="29" ht="15.5" spans="1:4">
       <c r="A29" s="14">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="30" ht="15.5" spans="1:4">
       <c r="A30" s="14">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>112</v>
+        <v>184</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
     </row>
     <row r="31" ht="15.5" spans="1:4">
-      <c r="A31" s="12">
-        <v>9</v>
-      </c>
-      <c r="B31" s="13" t="s">
-        <v>180</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>181</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>182</v>
+      <c r="A31" s="14">
+        <v>10</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="32" ht="15.5" spans="1:4">
-      <c r="A32" s="12">
-        <v>9</v>
-      </c>
-      <c r="B32" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="D32" s="13" t="s">
-        <v>185</v>
+      <c r="A32" s="14">
+        <v>10</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="33" ht="15.5" spans="1:4">
-      <c r="A33" s="12">
-        <v>9</v>
-      </c>
-      <c r="B33" s="13" t="s">
-        <v>186</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>188</v>
+      <c r="A33" s="16">
+        <v>11</v>
+      </c>
+      <c r="B33" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="34" ht="15.5" spans="1:4">
-      <c r="A34" s="12">
-        <v>9</v>
-      </c>
-      <c r="B34" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="C34" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="D34" s="13" t="s">
-        <v>191</v>
+      <c r="A34" s="18">
+        <v>12</v>
+      </c>
+      <c r="B34" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="D34" s="19" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="35" ht="15.5" spans="1:4">
-      <c r="A35" s="12">
-        <v>9</v>
-      </c>
-      <c r="B35" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="C35" s="13" t="s">
-        <v>192</v>
-      </c>
-      <c r="D35" s="13" t="s">
-        <v>193</v>
+      <c r="A35" s="18">
+        <v>12</v>
+      </c>
+      <c r="B35" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="D35" s="19" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="36" ht="15.5" spans="1:4">
-      <c r="A36" s="14">
-        <v>10</v>
-      </c>
-      <c r="B36" s="15" t="s">
-        <v>194</v>
-      </c>
-      <c r="C36" s="15" t="s">
-        <v>195</v>
-      </c>
-      <c r="D36" s="15" t="s">
-        <v>196</v>
+      <c r="A36" s="16">
+        <v>13</v>
+      </c>
+      <c r="B36" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="C36" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="37" ht="15.5" spans="1:4">
-      <c r="A37" s="14">
-        <v>10</v>
-      </c>
-      <c r="B37" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="C37" s="15" t="s">
-        <v>198</v>
-      </c>
-      <c r="D37" s="15" t="s">
-        <v>199</v>
+      <c r="A37" s="16">
+        <v>13</v>
+      </c>
+      <c r="B37" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="C37" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="38" ht="15.5" spans="1:4">
-      <c r="A38" s="14">
-        <v>10</v>
-      </c>
-      <c r="B38" s="15" t="s">
-        <v>200</v>
-      </c>
-      <c r="C38" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="D38" s="15" t="s">
-        <v>202</v>
+      <c r="A38" s="18">
+        <v>14</v>
+      </c>
+      <c r="B38" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="C38" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="D38" s="19" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="39" ht="15.5" spans="1:4">
-      <c r="A39" s="14">
-        <v>10</v>
-      </c>
-      <c r="B39" s="15" t="s">
-        <v>203</v>
-      </c>
-      <c r="C39" s="15" t="s">
-        <v>204</v>
-      </c>
-      <c r="D39" s="15" t="s">
-        <v>205</v>
+      <c r="A39" s="18">
+        <v>14</v>
+      </c>
+      <c r="B39" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="C39" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="D39" s="19" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="40" ht="15.5" spans="1:4">
-      <c r="A40" s="14">
-        <v>10</v>
-      </c>
-      <c r="B40" s="15" t="s">
-        <v>206</v>
-      </c>
-      <c r="C40" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="D40" s="15" t="s">
-        <v>208</v>
+      <c r="A40" s="18">
+        <v>14</v>
+      </c>
+      <c r="B40" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="C40" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="D40" s="19" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="41" ht="15.5" spans="1:4">
-      <c r="A41" s="14">
-        <v>10</v>
-      </c>
-      <c r="B41" s="15" t="s">
-        <v>209</v>
-      </c>
-      <c r="C41" s="15" t="s">
-        <v>210</v>
-      </c>
-      <c r="D41" s="15" t="s">
-        <v>209</v>
+      <c r="A41" s="20">
+        <v>15</v>
+      </c>
+      <c r="B41" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="C41" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="D41" s="21" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="42" ht="15.5" spans="1:4">
-      <c r="A42" s="14">
-        <v>10</v>
-      </c>
-      <c r="B42" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="C42" s="15" t="s">
-        <v>211</v>
-      </c>
-      <c r="D42" s="15" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="43" ht="15.5" spans="1:4">
-      <c r="A43" s="16">
-        <v>11</v>
-      </c>
-      <c r="B43" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="C43" s="17" t="s">
-        <v>214</v>
-      </c>
-      <c r="D43" s="17" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="44" ht="15.5" spans="1:4">
-      <c r="A44" s="16">
-        <v>11</v>
-      </c>
-      <c r="B44" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="C44" s="17" t="s">
-        <v>216</v>
-      </c>
-      <c r="D44" s="17" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="45" ht="15.5" spans="1:4">
-      <c r="A45" s="18">
-        <v>12</v>
-      </c>
-      <c r="B45" s="19" t="s">
-        <v>218</v>
-      </c>
-      <c r="C45" s="19" t="s">
+      <c r="A42" s="20">
+        <v>15</v>
+      </c>
+      <c r="B42" s="21" t="s">
         <v>219</v>
       </c>
-      <c r="D45" s="19" t="s">
+      <c r="C42" s="21" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="46" ht="15.5" spans="1:4">
-      <c r="A46" s="18">
-        <v>12</v>
-      </c>
-      <c r="B46" s="19" t="s">
+      <c r="D42" s="21" t="s">
         <v>221</v>
-      </c>
-      <c r="C46" s="19" t="s">
-        <v>222</v>
-      </c>
-      <c r="D46" s="19" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="47" ht="15.5" spans="1:4">
-      <c r="A47" s="18">
-        <v>12</v>
-      </c>
-      <c r="B47" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="C47" s="19" t="s">
-        <v>224</v>
-      </c>
-      <c r="D47" s="19" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="48" ht="15.5" spans="1:4">
-      <c r="A48" s="16">
-        <v>13</v>
-      </c>
-      <c r="B48" s="17" t="s">
-        <v>226</v>
-      </c>
-      <c r="C48" s="17" t="s">
-        <v>227</v>
-      </c>
-      <c r="D48" s="17" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="49" ht="15.5" spans="1:4">
-      <c r="A49" s="16">
-        <v>13</v>
-      </c>
-      <c r="B49" s="17" t="s">
-        <v>229</v>
-      </c>
-      <c r="C49" s="17" t="s">
-        <v>230</v>
-      </c>
-      <c r="D49" s="17" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="50" ht="15.5" spans="1:4">
-      <c r="A50" s="16">
-        <v>13</v>
-      </c>
-      <c r="B50" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="C50" s="17" t="s">
-        <v>232</v>
-      </c>
-      <c r="D50" s="17" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="51" ht="15.5" spans="1:4">
-      <c r="A51" s="18">
-        <v>14</v>
-      </c>
-      <c r="B51" s="19" t="s">
-        <v>234</v>
-      </c>
-      <c r="C51" s="19" t="s">
-        <v>235</v>
-      </c>
-      <c r="D51" s="19" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="52" ht="15.5" spans="1:4">
-      <c r="A52" s="18">
-        <v>14</v>
-      </c>
-      <c r="B52" s="19" t="s">
-        <v>237</v>
-      </c>
-      <c r="C52" s="19" t="s">
-        <v>238</v>
-      </c>
-      <c r="D52" s="19" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="53" ht="15.5" spans="1:4">
-      <c r="A53" s="18">
-        <v>14</v>
-      </c>
-      <c r="B53" s="19" t="s">
-        <v>240</v>
-      </c>
-      <c r="C53" s="19" t="s">
-        <v>241</v>
-      </c>
-      <c r="D53" s="19" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="54" ht="15.5" spans="1:4">
-      <c r="A54" s="18">
-        <v>14</v>
-      </c>
-      <c r="B54" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="C54" s="19" t="s">
-        <v>243</v>
-      </c>
-      <c r="D54" s="19" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="55" ht="15.5" spans="1:4">
-      <c r="A55" s="20">
-        <v>15</v>
-      </c>
-      <c r="B55" s="21" t="s">
-        <v>245</v>
-      </c>
-      <c r="C55" s="21" t="s">
-        <v>246</v>
-      </c>
-      <c r="D55" s="21" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="56" ht="15.5" spans="1:4">
-      <c r="A56" s="20">
-        <v>15</v>
-      </c>
-      <c r="B56" s="21" t="s">
-        <v>248</v>
-      </c>
-      <c r="C56" s="21" t="s">
-        <v>249</v>
-      </c>
-      <c r="D56" s="21" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="57" ht="15.5" spans="1:4">
-      <c r="A57" s="20">
-        <v>15</v>
-      </c>
-      <c r="B57" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="C57" s="21" t="s">
-        <v>251</v>
-      </c>
-      <c r="D57" s="21" t="s">
-        <v>252</v>
       </c>
     </row>
   </sheetData>
